--- a/likelihood_formulas_M2.xlsx
+++ b/likelihood_formulas_M2.xlsx
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7865</v>
+        <v>1.2045</v>
       </c>
       <c r="E2">
         <v>787</v>
       </c>
       <c r="F2">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G2">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H2">
-        <v>-0.3401991147665267</v>
+        <v>0.351418352690149</v>
       </c>
       <c r="I2">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J2">
-        <v>0.000646086838833522</v>
+        <v>0.0004186647846405233</v>
       </c>
       <c r="K2">
-        <v>0.1931603616584023</v>
+        <v>0.2836320404837299</v>
       </c>
       <c r="L2">
-        <v>6.239918372590849E-05</v>
+        <v>5.937337357313648E-05</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -602,34 +602,34 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9590000000000001</v>
+        <v>-0.866</v>
       </c>
       <c r="E3">
         <v>605.67</v>
       </c>
       <c r="F3">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G3">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H3">
-        <v>-0.06771018284361886</v>
+        <v>0.1704224156892632</v>
       </c>
       <c r="I3">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J3">
-        <v>0.002452319226016377</v>
+        <v>0.001828047907659831</v>
       </c>
       <c r="K3">
-        <v>0.2250076465909946</v>
+        <v>0.224220022201643</v>
       </c>
       <c r="L3">
-        <v>0.0002758952888678973</v>
+        <v>0.0002049424712205772</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>-0.866</v>
+        <v>0.7865</v>
       </c>
       <c r="E4">
         <v>566</v>
       </c>
       <c r="F4">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G4">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H4">
-        <v>-0.00809712416947922</v>
+        <v>0.130825499454635</v>
       </c>
       <c r="I4">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J4">
-        <v>0.002676448682464388</v>
+        <v>0.002716594395547477</v>
       </c>
       <c r="K4">
-        <v>0.2819204444618649</v>
+        <v>0.347152198486596</v>
       </c>
       <c r="L4">
-        <v>0.0003772728010698665</v>
+        <v>0.000471535858405336</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -678,34 +678,34 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1.078</v>
+        <v>0.9525</v>
       </c>
       <c r="E5">
         <v>361.23</v>
       </c>
       <c r="F5">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G5">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H5">
-        <v>0.2996156568918665</v>
+        <v>-0.0735672541971126</v>
       </c>
       <c r="I5">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J5">
-        <v>0.001308922865179074</v>
+        <v>0.001617569301000659</v>
       </c>
       <c r="K5">
-        <v>0.3091568236145787</v>
+        <v>0.2274928778429934</v>
       </c>
       <c r="L5">
-        <v>0.000202331217677628</v>
+        <v>0.0001839927476975595</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-0.8335</v>
+        <v>-0.873</v>
       </c>
       <c r="E6">
         <v>572.5</v>
       </c>
       <c r="F6">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G6">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H6">
-        <v>-0.01786482977527473</v>
+        <v>0.1373135245497971</v>
       </c>
       <c r="I6">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J6">
-        <v>0.002651661641753627</v>
+        <v>0.002667666377545357</v>
       </c>
       <c r="K6">
-        <v>0.2964154480804438</v>
+        <v>0.2324989679415868</v>
       </c>
       <c r="L6">
-        <v>0.0003929967368490633</v>
+        <v>0.0003101148397958834</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -757,31 +757,31 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>-1.0935</v>
+        <v>0.2875</v>
       </c>
       <c r="E7">
         <v>515.6</v>
       </c>
       <c r="F7">
-        <v>464.2957142857144</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G7">
-        <v>27268.71972448979</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H7">
-        <v>0.06764016237391982</v>
+        <v>0.0805183510244544</v>
       </c>
       <c r="I7">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J7">
-        <v>0.002302064154196179</v>
+        <v>0.002135272530020021</v>
       </c>
       <c r="K7">
-        <v>0.1826682308327292</v>
+        <v>0.4514166623786996</v>
       </c>
       <c r="L7">
-        <v>0.0002102569931552295</v>
+        <v>0.0004819487993852799</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.5565</v>
+        <v>1.175</v>
       </c>
       <c r="E8">
         <v>524.11</v>
       </c>
       <c r="F8">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G8">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H8">
-        <v>0.05485198165002447</v>
+        <v>0.0890126731105821</v>
       </c>
       <c r="I8">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J8">
-        <v>0.002710692917079797</v>
+        <v>0.002894950908838696</v>
       </c>
       <c r="K8">
-        <v>0.3973918468209015</v>
+        <v>0.2087737328100992</v>
       </c>
       <c r="L8">
-        <v>0.0005386036322413386</v>
+        <v>0.0003021948537701219</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>-0.886</v>
+        <v>0.8565</v>
       </c>
       <c r="E9">
         <v>487.4</v>
       </c>
       <c r="F9">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G9">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H9">
-        <v>0.1100169774636789</v>
+        <v>0.05237030368851998</v>
       </c>
       <c r="I9">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J9">
-        <v>0.002562770502289248</v>
+        <v>0.002836243804404803</v>
       </c>
       <c r="K9">
-        <v>0.235130015015211</v>
+        <v>0.2996816222613966</v>
       </c>
       <c r="L9">
-        <v>0.0003012921333419053</v>
+        <v>0.0004249850722164333</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -868,34 +868,34 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>-0.8155</v>
+        <v>-0.158</v>
       </c>
       <c r="E10">
         <v>603.33</v>
       </c>
       <c r="F10">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G10">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H10">
-        <v>-0.06419380882553259</v>
+        <v>0.1680867266550048</v>
       </c>
       <c r="I10">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J10">
-        <v>0.002470027016318478</v>
+        <v>0.001840879833554129</v>
       </c>
       <c r="K10">
-        <v>0.318367829910043</v>
+        <v>0.432382965391615</v>
       </c>
       <c r="L10">
-        <v>0.0003931885705022461</v>
+        <v>0.0003979825406808784</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -909,31 +909,31 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1.175</v>
+        <v>-0.886</v>
       </c>
       <c r="E11">
         <v>389</v>
       </c>
       <c r="F11">
-        <v>464.2957142857144</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G11">
-        <v>27268.71972448979</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H11">
-        <v>0.2578850130960294</v>
+        <v>-0.0458484146751659</v>
       </c>
       <c r="I11">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J11">
-        <v>0.002177361645460249</v>
+        <v>0.001788811847718346</v>
       </c>
       <c r="K11">
-        <v>0.2616819260958728</v>
+        <v>0.287876825253058</v>
       </c>
       <c r="L11">
-        <v>0.0002848880945956584</v>
+        <v>0.0002574787378481069</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.0325</v>
+        <v>-0.8935</v>
       </c>
       <c r="E12">
         <v>664</v>
       </c>
       <c r="F12">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G12">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H12">
-        <v>-0.1553640702260885</v>
+        <v>0.2286449547355416</v>
       </c>
       <c r="I12">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J12">
-        <v>0.001887391801572876</v>
+        <v>0.001629881623338272</v>
       </c>
       <c r="K12">
-        <v>0.1747188043201561</v>
+        <v>0.197764834074325</v>
       </c>
       <c r="L12">
-        <v>0.0001648814194272391</v>
+        <v>0.0001611666344001425</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>-1.086</v>
+        <v>-0.776</v>
       </c>
       <c r="E13">
         <v>467</v>
       </c>
       <c r="F13">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G13">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H13">
-        <v>0.1406725458264833</v>
+        <v>0.03200788646678024</v>
       </c>
       <c r="I13">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J13">
-        <v>0.002417536004435413</v>
+        <v>0.00271915911492238</v>
       </c>
       <c r="K13">
-        <v>0.1634915751478935</v>
+        <v>0.2984130250144396</v>
       </c>
       <c r="L13">
-        <v>0.0001976233846709453</v>
+        <v>0.0004057162484897868</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-0.8935</v>
+        <v>0.9165</v>
       </c>
       <c r="E14">
         <v>564</v>
       </c>
       <c r="F14">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G14">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H14">
-        <v>-0.005091676290772909</v>
+        <v>0.1288291840407389</v>
       </c>
       <c r="I14">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J14">
-        <v>0.002013332978804932</v>
+        <v>0.002730602560262292</v>
       </c>
       <c r="K14">
-        <v>0.2714740324339423</v>
+        <v>0.305056494348702</v>
       </c>
       <c r="L14">
-        <v>0.0002732838111942079</v>
+        <v>0.0004164940222466026</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7185</v>
+        <v>0.619</v>
       </c>
       <c r="E15">
         <v>484.19</v>
       </c>
       <c r="F15">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G15">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H15">
-        <v>0.1148407213090025</v>
+        <v>0.04916621744921683</v>
       </c>
       <c r="I15">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J15">
-        <v>0.002542620202769479</v>
+        <v>0.002821600832076969</v>
       </c>
       <c r="K15">
-        <v>0.366868895965592</v>
+        <v>0.3728368973402711</v>
       </c>
       <c r="L15">
-        <v>0.0004664041333249243</v>
+        <v>0.0005259984498821523</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1096,34 +1096,34 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1.2045</v>
+        <v>0.6525000000000001</v>
       </c>
       <c r="E16">
         <v>672.08</v>
       </c>
       <c r="F16">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G16">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H16">
-        <v>-0.1675060796560621</v>
+        <v>0.2367100690076817</v>
       </c>
       <c r="I16">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J16">
-        <v>0.001797537833140122</v>
+        <v>0.001403428487557328</v>
       </c>
       <c r="K16">
-        <v>0.1250946637900157</v>
+        <v>0.4132935145863087</v>
       </c>
       <c r="L16">
-        <v>0.0001124311954432485</v>
+        <v>0.0002900139460465579</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1134,34 +1134,34 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.7985</v>
+        <v>-1.086</v>
       </c>
       <c r="E17">
         <v>664.8</v>
       </c>
       <c r="F17">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G17">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H17">
-        <v>-0.156566249377571</v>
+        <v>0.2294434809011</v>
       </c>
       <c r="I17">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J17">
-        <v>0.00187855360807934</v>
+        <v>0.001453681810027525</v>
       </c>
       <c r="K17">
-        <v>0.2488298587141323</v>
+        <v>0.1436498766207299</v>
       </c>
       <c r="L17">
-        <v>0.0002337201144426528</v>
+        <v>0.0001044106063281266</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>-0.9385</v>
+        <v>0.9590000000000001</v>
       </c>
       <c r="E18">
         <v>533</v>
       </c>
       <c r="F18">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G18">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H18">
-        <v>0.04149276582917493</v>
+        <v>0.09788629512535005</v>
       </c>
       <c r="I18">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J18">
-        <v>0.002721938876712056</v>
+        <v>0.002878363831050812</v>
       </c>
       <c r="K18">
-        <v>0.2404666960615492</v>
+        <v>0.2809946848517019</v>
       </c>
       <c r="L18">
-        <v>0.0003272678242822163</v>
+        <v>0.0004044024687973302</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1213,31 +1213,31 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.2875</v>
+        <v>1.0325</v>
       </c>
       <c r="E19">
         <v>695.67</v>
       </c>
       <c r="F19">
-        <v>464.2957142857144</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G19">
-        <v>27268.71972448979</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H19">
-        <v>-0.2029553373854029</v>
+        <v>0.2602566093145856</v>
       </c>
       <c r="I19">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J19">
-        <v>0.0009052600524279613</v>
+        <v>0.001239143183242771</v>
       </c>
       <c r="K19">
-        <v>0.4005318859761435</v>
+        <v>0.3100785122522525</v>
       </c>
       <c r="L19">
-        <v>0.000181292758048917</v>
+        <v>0.0001921158373637194</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1248,34 +1248,34 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1.2175</v>
+        <v>-0.8195</v>
       </c>
       <c r="E20">
         <v>437</v>
       </c>
       <c r="F20">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G20">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H20">
-        <v>0.1857542640070779</v>
+        <v>0.002063155258339416</v>
       </c>
       <c r="I20">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J20">
-        <v>0.002383112996370328</v>
+        <v>0.002455643127612019</v>
       </c>
       <c r="K20">
-        <v>0.2233605975620657</v>
+        <v>0.2939738524248476</v>
       </c>
       <c r="L20">
-        <v>0.0002661467714636007</v>
+        <v>0.0003609474352023536</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>-0.873</v>
+        <v>-0.6830000000000001</v>
       </c>
       <c r="E21">
         <v>765.75</v>
       </c>
       <c r="F21">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G21">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H21">
-        <v>-0.3082662310552721</v>
+        <v>0.3302075014175034</v>
       </c>
       <c r="I21">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J21">
-        <v>0.0008177357238427914</v>
+        <v>0.0005605963392627382</v>
       </c>
       <c r="K21">
-        <v>0.3788878798952258</v>
+        <v>0.2315770026218287</v>
       </c>
       <c r="L21">
-        <v>0.0001549150773606915</v>
+        <v>6.491060996361736E-05</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1324,34 +1324,34 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-0.7004999999999999</v>
+        <v>0.7595000000000001</v>
       </c>
       <c r="E22">
         <v>637.25</v>
       </c>
       <c r="F22">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G22">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H22">
-        <v>-0.1151662048483916</v>
+        <v>0.2019442360746819</v>
       </c>
       <c r="I22">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J22">
-        <v>0.001395956711525935</v>
+        <v>0.001970518740590956</v>
       </c>
       <c r="K22">
-        <v>0.3725786630812126</v>
+        <v>0.3763550566533874</v>
       </c>
       <c r="L22">
-        <v>0.0002600518426497894</v>
+        <v>0.0003708073461258355</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1362,34 +1362,34 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>-0.8195</v>
+        <v>0.899</v>
       </c>
       <c r="E23">
         <v>819</v>
       </c>
       <c r="F23">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G23">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H23">
-        <v>-0.3882862808258277</v>
+        <v>0.3833593993124859</v>
       </c>
       <c r="I23">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J23">
-        <v>0.0004354678811205583</v>
+        <v>0.0004977553921501675</v>
       </c>
       <c r="K23">
-        <v>0.4163365294658443</v>
+        <v>0.388019013022322</v>
       </c>
       <c r="L23">
-        <v>9.065059315978905E-05</v>
+        <v>9.656927799432342E-05</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1400,34 +1400,34 @@
         <v>33</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-0.8205</v>
+        <v>0.8125</v>
       </c>
       <c r="E24">
         <v>665</v>
       </c>
       <c r="F24">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G24">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H24">
-        <v>-0.1568667941654417</v>
+        <v>0.2296431124424897</v>
       </c>
       <c r="I24">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J24">
-        <v>0.001154252858421497</v>
+        <v>0.001617172871509755</v>
       </c>
       <c r="K24">
-        <v>0.3476282472102704</v>
+        <v>0.3690586565513766</v>
       </c>
       <c r="L24">
-        <v>0.0002006254490052547</v>
+        <v>0.0002984158236853611</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1438,34 +1438,34 @@
         <v>34</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-0.776</v>
+        <v>0.7185</v>
       </c>
       <c r="E25">
         <v>334.75</v>
       </c>
       <c r="F25">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G25">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H25">
-        <v>0.3394077868059381</v>
+        <v>-0.09999847027709638</v>
       </c>
       <c r="I25">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J25">
-        <v>0.001775979456437196</v>
+        <v>0.001213837129206114</v>
       </c>
       <c r="K25">
-        <v>0.1966576908392204</v>
+        <v>0.2949781184341687</v>
       </c>
       <c r="L25">
-        <v>0.0001746300094404164</v>
+        <v>0.0001790276962293761</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1479,31 +1479,31 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.9165</v>
+        <v>-0.885</v>
       </c>
       <c r="E26">
         <v>307.83</v>
       </c>
       <c r="F26">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G26">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H26">
-        <v>0.3798611152533251</v>
+        <v>-0.1268688757481373</v>
       </c>
       <c r="I26">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J26">
-        <v>0.0007876697033301009</v>
+        <v>0.0009198315171176667</v>
       </c>
       <c r="K26">
-        <v>0.3872894079302997</v>
+        <v>0.3146557698813738</v>
       </c>
       <c r="L26">
-        <v>0.0001525280665236748</v>
+        <v>0.0001447151470899058</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1514,34 +1514,34 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0.899</v>
+        <v>1.078</v>
       </c>
       <c r="E27">
         <v>442</v>
       </c>
       <c r="F27">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G27">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H27">
-        <v>0.1782406443103121</v>
+        <v>0.007053943793079553</v>
       </c>
       <c r="I27">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J27">
-        <v>0.002191963297416264</v>
+        <v>0.002037852580187526</v>
       </c>
       <c r="K27">
-        <v>0.32867825825008</v>
+        <v>0.2134203745383177</v>
       </c>
       <c r="L27">
-        <v>0.0003602253393714398</v>
+        <v>0.0002174596304587495</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1552,34 +1552,34 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0.6525000000000001</v>
+        <v>1.2175</v>
       </c>
       <c r="E28">
         <v>260.42</v>
       </c>
       <c r="F28">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G28">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H28">
-        <v>0.4511052572180582</v>
+        <v>-0.1741915326345432</v>
       </c>
       <c r="I28">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J28">
-        <v>0.0004488835702299391</v>
+        <v>0.00093126578295219</v>
       </c>
       <c r="K28">
-        <v>0.461527201845757</v>
+        <v>0.1248766029476336</v>
       </c>
       <c r="L28">
-        <v>0.0001035859890613786</v>
+        <v>5.81466537082189E-05</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1593,31 +1593,31 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.8034999999999999</v>
+        <v>-0.9385</v>
       </c>
       <c r="E29">
         <v>448.82</v>
       </c>
       <c r="F29">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G29">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H29">
-        <v>0.1679920670439236</v>
+        <v>0.0138613793544651</v>
       </c>
       <c r="I29">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J29">
-        <v>0.002257840397276644</v>
+        <v>0.002570824340262102</v>
       </c>
       <c r="K29">
-        <v>0.3567487515115108</v>
+        <v>0.2511523723510848</v>
       </c>
       <c r="L29">
-        <v>0.0004027408714203481</v>
+        <v>0.0003228343159773697</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1631,31 +1631,31 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>-0.6830000000000001</v>
+        <v>-0.8205</v>
       </c>
       <c r="E30">
         <v>455.38</v>
       </c>
       <c r="F30">
-        <v>464.2957142857144</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G30">
-        <v>27268.71972448979</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H30">
-        <v>0.1581341980017669</v>
+        <v>0.02040929391204416</v>
       </c>
       <c r="I30">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J30">
-        <v>0.00241237430747089</v>
+        <v>0.002079235380527547</v>
       </c>
       <c r="K30">
-        <v>0.2876713404753365</v>
+        <v>0.2876281354414528</v>
       </c>
       <c r="L30">
-        <v>0.0003469854753792062</v>
+        <v>0.000299023297822519</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1669,31 +1669,31 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0.9525</v>
+        <v>-0.8155</v>
       </c>
       <c r="E31">
         <v>89.5</v>
       </c>
       <c r="F31">
-        <v>464.2957142857144</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G31">
-        <v>27268.71972448979</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H31">
-        <v>0.7079508329322997</v>
+        <v>-0.3447966479061001</v>
       </c>
       <c r="I31">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J31">
-        <v>0.0001838516060586433</v>
+        <v>0.0001869713707004265</v>
       </c>
       <c r="K31">
-        <v>0.4552746229638805</v>
+        <v>0.3998654560814828</v>
       </c>
       <c r="L31">
-        <v>4.185148531482636E-05</v>
+        <v>3.738169620965303E-05</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1707,31 +1707,31 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>-1.1685</v>
+        <v>-0.8335</v>
       </c>
       <c r="E32">
         <v>437.64</v>
       </c>
       <c r="F32">
-        <v>464.2957142857144</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="G32">
-        <v>27268.71972448979</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="H32">
-        <v>0.1847925206858919</v>
+        <v>0.002701976190786146</v>
       </c>
       <c r="I32">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J32">
-        <v>0.002384622278056376</v>
+        <v>0.002022290419583859</v>
       </c>
       <c r="K32">
-        <v>0.1296993203706594</v>
+        <v>0.2891729762664585</v>
       </c>
       <c r="L32">
-        <v>0.0001546419444023228</v>
+        <v>0.0002923958697531049</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1745,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.8565</v>
+        <v>0.7985</v>
       </c>
       <c r="E33">
         <v>354</v>
       </c>
       <c r="F33">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G33">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H33">
-        <v>0.3104803509733899</v>
+        <v>-0.08078393441834686</v>
       </c>
       <c r="I33">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J33">
-        <v>0.001231486220846087</v>
+        <v>0.001445766792316066</v>
       </c>
       <c r="K33">
-        <v>0.3845114989277627</v>
+        <v>0.275029699605551</v>
       </c>
       <c r="L33">
-        <v>0.0002367603063432074</v>
+        <v>0.0001988144032951843</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1780,34 +1780,34 @@
         <v>43</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-0.158</v>
+        <v>-1.1685</v>
       </c>
       <c r="E34">
         <v>605</v>
       </c>
       <c r="F34">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G34">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H34">
-        <v>-0.06670335780425231</v>
+        <v>0.169753650025608</v>
       </c>
       <c r="I34">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J34">
-        <v>0.001680443724115564</v>
+        <v>0.002355729053604043</v>
       </c>
       <c r="K34">
-        <v>0.4721899984505935</v>
+        <v>0.1378695746917405</v>
       </c>
       <c r="L34">
-        <v>0.0003967443597432189</v>
+        <v>0.0001623916813546828</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1818,34 +1818,34 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.8125</v>
+        <v>-1.0935</v>
       </c>
       <c r="E35">
         <v>217</v>
       </c>
       <c r="F35">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G35">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H35">
-        <v>0.5163535306647723</v>
+        <v>-0.2175315402702266</v>
       </c>
       <c r="I35">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J35">
-        <v>0.0007871992281499778</v>
+        <v>0.0002720238697680479</v>
       </c>
       <c r="K35">
-        <v>0.4463604433074596</v>
+        <v>0.2761178173178224</v>
       </c>
       <c r="L35">
-        <v>0.000175687298224157</v>
+        <v>3.755531858935048E-05</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1859,31 +1859,31 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.619</v>
+        <v>0.8034999999999999</v>
       </c>
       <c r="E36">
         <v>415.73</v>
       </c>
       <c r="F36">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G36">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H36">
-        <v>0.2177172021971195</v>
+        <v>-0.01916765916844511</v>
       </c>
       <c r="I36">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J36">
-        <v>0.001916452971972902</v>
+        <v>0.002219569629705294</v>
       </c>
       <c r="K36">
-        <v>0.4237547989204495</v>
+        <v>0.2936118391505749</v>
       </c>
       <c r="L36">
-        <v>0.0004060530718894376</v>
+        <v>0.000325845960550266</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1897,31 +1897,31 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.7595000000000001</v>
+        <v>0.5565</v>
       </c>
       <c r="E37">
         <v>580.67</v>
       </c>
       <c r="F37">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G37">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H37">
-        <v>-0.03014208435978996</v>
+        <v>0.1454684730155625</v>
       </c>
       <c r="I37">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J37">
-        <v>0.002613519956710519</v>
+        <v>0.002599174240376039</v>
       </c>
       <c r="K37">
-        <v>0.3053128156046552</v>
+        <v>0.4143982664288695</v>
       </c>
       <c r="L37">
-        <v>0.0003989705683111226</v>
+        <v>0.0005385466496792021</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1932,34 +1932,34 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-0.885</v>
+        <v>-0.7004999999999999</v>
       </c>
       <c r="E38">
         <v>457.35</v>
       </c>
       <c r="F38">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="G38">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="H38">
-        <v>0.1551738318412412</v>
+        <v>0.0223756645947318</v>
       </c>
       <c r="I38">
-        <v>0.7054319558616159</v>
+        <v>0.736913835728882</v>
       </c>
       <c r="J38">
-        <v>0.002413756863995893</v>
+        <v>0.002645131865157812</v>
       </c>
       <c r="K38">
-        <v>0.2206130898175626</v>
+        <v>0.3260029527117589</v>
       </c>
       <c r="L38">
-        <v>0.0002662531799172421</v>
+        <v>0.0004311603991767045</v>
       </c>
     </row>
   </sheetData>

--- a/likelihood_formulas_M2.xlsx
+++ b/likelihood_formulas_M2.xlsx
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.2045</v>
+        <v>1.078</v>
       </c>
       <c r="E2">
         <v>787</v>
       </c>
       <c r="F2">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G2">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H2">
-        <v>0.351418352690149</v>
+        <v>-0.177438683037157</v>
       </c>
       <c r="I2">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J2">
-        <v>0.0004186647846405233</v>
+        <v>0.0007766707070766589</v>
       </c>
       <c r="K2">
-        <v>0.2836320404837299</v>
+        <v>0.1599914571516448</v>
       </c>
       <c r="L2">
-        <v>5.937337357313648E-05</v>
+        <v>6.213033907609647E-05</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -602,34 +602,34 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.866</v>
+        <v>-0.158</v>
       </c>
       <c r="E3">
         <v>605.67</v>
       </c>
       <c r="F3">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G3">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H3">
-        <v>0.1704224156892632</v>
+        <v>-0.01166971774579877</v>
       </c>
       <c r="I3">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J3">
-        <v>0.001828047907659831</v>
+        <v>0.002002052752595503</v>
       </c>
       <c r="K3">
-        <v>0.224220022201643</v>
+        <v>0.4568238647535111</v>
       </c>
       <c r="L3">
-        <v>0.0002049424712205772</v>
+        <v>0.0004572927379405414</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.7865</v>
+        <v>0.8565</v>
       </c>
       <c r="E4">
         <v>566</v>
       </c>
       <c r="F4">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G4">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H4">
-        <v>0.130825499454635</v>
+        <v>0.02459595728375052</v>
       </c>
       <c r="I4">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J4">
-        <v>0.002716594395547477</v>
+        <v>0.002153538099781536</v>
       </c>
       <c r="K4">
-        <v>0.347152198486596</v>
+        <v>0.2905331370244745</v>
       </c>
       <c r="L4">
-        <v>0.000471535858405336</v>
+        <v>0.0003128370899156278</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -678,34 +678,34 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9525</v>
+        <v>-0.7004999999999999</v>
       </c>
       <c r="E5">
         <v>361.23</v>
       </c>
       <c r="F5">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G5">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H5">
-        <v>-0.0735672541971126</v>
+        <v>0.2117933930236248</v>
       </c>
       <c r="I5">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J5">
-        <v>0.001617569301000659</v>
+        <v>0.001458359751044404</v>
       </c>
       <c r="K5">
-        <v>0.2274928778429934</v>
+        <v>0.2643028265277573</v>
       </c>
       <c r="L5">
-        <v>0.0001839927476975595</v>
+        <v>0.0001927243021476762</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-0.873</v>
+        <v>0.2875</v>
       </c>
       <c r="E6">
         <v>572.5</v>
       </c>
       <c r="F6">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G6">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H6">
-        <v>0.1373135245497971</v>
+        <v>0.01865376198019442</v>
       </c>
       <c r="I6">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J6">
-        <v>0.002667666377545357</v>
+        <v>0.002134989469137696</v>
       </c>
       <c r="K6">
-        <v>0.2324989679415868</v>
+        <v>0.4414089808855099</v>
       </c>
       <c r="L6">
-        <v>0.0003101148397958834</v>
+        <v>0.0004712017628866833</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -754,34 +754,34 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2875</v>
+        <v>-0.9385</v>
       </c>
       <c r="E7">
         <v>515.6</v>
       </c>
       <c r="F7">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G7">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H7">
-        <v>0.0805183510244544</v>
+        <v>0.07067082548363166</v>
       </c>
       <c r="I7">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J7">
-        <v>0.002135272530020021</v>
+        <v>0.002204018224676422</v>
       </c>
       <c r="K7">
-        <v>0.4514166623786996</v>
+        <v>0.2331022180414762</v>
       </c>
       <c r="L7">
-        <v>0.0004819487993852799</v>
+        <v>0.0002568807683879552</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.175</v>
+        <v>-0.885</v>
       </c>
       <c r="E8">
         <v>524.11</v>
       </c>
       <c r="F8">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G8">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H8">
-        <v>0.0890126731105821</v>
+        <v>0.06289112055543745</v>
       </c>
       <c r="I8">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J8">
-        <v>0.002894950908838696</v>
+        <v>0.002207426797913534</v>
       </c>
       <c r="K8">
-        <v>0.2087737328100992</v>
+        <v>0.2527520493946077</v>
       </c>
       <c r="L8">
-        <v>0.0003021948537701219</v>
+        <v>0.0002789658235306112</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -830,34 +830,34 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.8565</v>
+        <v>0.5565</v>
       </c>
       <c r="E9">
         <v>487.4</v>
       </c>
       <c r="F9">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G9">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H9">
-        <v>0.05237030368851998</v>
+        <v>0.09645081126213664</v>
       </c>
       <c r="I9">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J9">
-        <v>0.002836243804404803</v>
+        <v>0.00375881985169123</v>
       </c>
       <c r="K9">
-        <v>0.2996816222613966</v>
+        <v>0.4017869365662785</v>
       </c>
       <c r="L9">
-        <v>0.0004249850722164333</v>
+        <v>0.0007551223566577663</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -871,31 +871,31 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>-0.158</v>
+        <v>-1.0935</v>
       </c>
       <c r="E10">
         <v>603.33</v>
       </c>
       <c r="F10">
-        <v>500.8085714285715</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G10">
-        <v>34687.60095510204</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H10">
-        <v>0.1680867266550048</v>
+        <v>-0.009530527436518638</v>
       </c>
       <c r="I10">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J10">
-        <v>0.001840879833554129</v>
+        <v>0.002024358055023387</v>
       </c>
       <c r="K10">
-        <v>0.432382965391615</v>
+        <v>0.2097301967252513</v>
       </c>
       <c r="L10">
-        <v>0.0003979825406808784</v>
+        <v>0.000212284506561201</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -909,31 +909,31 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>-0.886</v>
+        <v>-0.6830000000000001</v>
       </c>
       <c r="E11">
         <v>389</v>
       </c>
       <c r="F11">
-        <v>500.8085714285715</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G11">
-        <v>34687.60095510204</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H11">
-        <v>-0.0458484146751659</v>
+        <v>0.1864065063190475</v>
       </c>
       <c r="I11">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J11">
-        <v>0.001788811847718346</v>
+        <v>0.002491485100271271</v>
       </c>
       <c r="K11">
-        <v>0.287876825253058</v>
+        <v>0.2782891892430417</v>
       </c>
       <c r="L11">
-        <v>0.0002574787378481069</v>
+        <v>0.0003466766842828052</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>-0.8935</v>
+        <v>1.175</v>
       </c>
       <c r="E12">
         <v>664</v>
       </c>
       <c r="F12">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G12">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H12">
-        <v>0.2286449547355416</v>
+        <v>-0.06499406421601842</v>
       </c>
       <c r="I12">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J12">
-        <v>0.001629881623338272</v>
+        <v>0.001647750029712754</v>
       </c>
       <c r="K12">
-        <v>0.197764834074325</v>
+        <v>0.1642072414219164</v>
       </c>
       <c r="L12">
-        <v>0.0001611666344001425</v>
+        <v>0.000135286243466006</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -982,34 +982,34 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>-0.776</v>
+        <v>-0.8155</v>
       </c>
       <c r="E13">
         <v>467</v>
       </c>
       <c r="F13">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G13">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H13">
-        <v>0.03200788646678024</v>
+        <v>0.1151001626763742</v>
       </c>
       <c r="I13">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J13">
-        <v>0.00271915911492238</v>
+        <v>0.003704349918550382</v>
       </c>
       <c r="K13">
-        <v>0.2984130250144396</v>
+        <v>0.2583533626007875</v>
       </c>
       <c r="L13">
-        <v>0.0004057162484897868</v>
+        <v>0.0004785156288537223</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.9165</v>
+        <v>-0.873</v>
       </c>
       <c r="E14">
         <v>564</v>
       </c>
       <c r="F14">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G14">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H14">
-        <v>0.1288291840407389</v>
+        <v>0.02642432506946009</v>
       </c>
       <c r="I14">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J14">
-        <v>0.002730602560262292</v>
+        <v>0.002854736933616675</v>
       </c>
       <c r="K14">
-        <v>0.305056494348702</v>
+        <v>0.2684942255581727</v>
       </c>
       <c r="L14">
-        <v>0.0004164940222466026</v>
+        <v>0.0003832401910818608</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.619</v>
+        <v>1.0325</v>
       </c>
       <c r="E15">
         <v>484.19</v>
       </c>
       <c r="F15">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G15">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H15">
-        <v>0.04916621744921683</v>
+        <v>0.09938534155820047</v>
       </c>
       <c r="I15">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J15">
-        <v>0.002821600832076969</v>
+        <v>0.002149815618322943</v>
       </c>
       <c r="K15">
-        <v>0.3728368973402711</v>
+        <v>0.2575376137589952</v>
       </c>
       <c r="L15">
-        <v>0.0005259984498821523</v>
+        <v>0.0002768291921823548</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1096,34 +1096,34 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6525000000000001</v>
+        <v>-0.8335</v>
       </c>
       <c r="E16">
         <v>672.08</v>
       </c>
       <c r="F16">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G16">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H16">
-        <v>0.2367100690076817</v>
+        <v>-0.07238067007028509</v>
       </c>
       <c r="I16">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J16">
-        <v>0.001403428487557328</v>
+        <v>0.001590767958529565</v>
       </c>
       <c r="K16">
-        <v>0.4132935145863087</v>
+        <v>0.3135043839819938</v>
       </c>
       <c r="L16">
-        <v>0.0002900139460465579</v>
+        <v>0.0002493563644485526</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1137,31 +1137,31 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>-1.086</v>
+        <v>0.7865</v>
       </c>
       <c r="E17">
         <v>664.8</v>
       </c>
       <c r="F17">
-        <v>500.8085714285715</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G17">
-        <v>34687.60095510204</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H17">
-        <v>0.2294434809011</v>
+        <v>-0.06572541133030219</v>
       </c>
       <c r="I17">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J17">
-        <v>0.001453681810027525</v>
+        <v>0.0008984283018948918</v>
       </c>
       <c r="K17">
-        <v>0.1436498766207299</v>
+        <v>0.2839000276913501</v>
       </c>
       <c r="L17">
-        <v>0.0001044106063281266</v>
+        <v>0.0001275319098933262</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9590000000000001</v>
+        <v>0.6525000000000001</v>
       </c>
       <c r="E18">
         <v>533</v>
       </c>
       <c r="F18">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G18">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H18">
-        <v>0.09788629512535005</v>
+        <v>0.05476402574795843</v>
       </c>
       <c r="I18">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J18">
-        <v>0.002878363831050812</v>
+        <v>0.002205763416961644</v>
       </c>
       <c r="K18">
-        <v>0.2809946848517019</v>
+        <v>0.3641757970615028</v>
       </c>
       <c r="L18">
-        <v>0.0004044024687973302</v>
+        <v>0.0004016428252505552</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1210,34 +1210,34 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1.0325</v>
+        <v>0.7185</v>
       </c>
       <c r="E19">
         <v>695.67</v>
       </c>
       <c r="F19">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G19">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H19">
-        <v>0.2602566093145856</v>
+        <v>-0.09394626810272941</v>
       </c>
       <c r="I19">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J19">
-        <v>0.001239143183242771</v>
+        <v>0.001419108583427478</v>
       </c>
       <c r="K19">
-        <v>0.3100785122522525</v>
+        <v>0.2968744431129315</v>
       </c>
       <c r="L19">
-        <v>0.0001921158373637194</v>
+        <v>0.0002106485352109069</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>-0.8195</v>
+        <v>-0.886</v>
       </c>
       <c r="E20">
         <v>437</v>
       </c>
       <c r="F20">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G20">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H20">
-        <v>0.002063155258339416</v>
+        <v>0.1425256794620178</v>
       </c>
       <c r="I20">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J20">
-        <v>0.002455643127612019</v>
+        <v>0.001956559687793658</v>
       </c>
       <c r="K20">
-        <v>0.2939738524248476</v>
+        <v>0.2269800146283944</v>
       </c>
       <c r="L20">
-        <v>0.0003609474352023536</v>
+        <v>0.0002220499732783657</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>-0.6830000000000001</v>
+        <v>-1.1685</v>
       </c>
       <c r="E21">
         <v>765.75</v>
       </c>
       <c r="F21">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G21">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H21">
-        <v>0.3302075014175034</v>
+        <v>-0.1580122753139928</v>
       </c>
       <c r="I21">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J21">
-        <v>0.0005605963392627382</v>
+        <v>0.0009142123889049103</v>
       </c>
       <c r="K21">
-        <v>0.2315770026218287</v>
+        <v>0.2326842089492809</v>
       </c>
       <c r="L21">
-        <v>6.491060996361736E-05</v>
+        <v>0.0001063613932619857</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1324,34 +1324,34 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0.7595000000000001</v>
+        <v>1.2175</v>
       </c>
       <c r="E22">
         <v>637.25</v>
       </c>
       <c r="F22">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G22">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H22">
-        <v>0.2019442360746819</v>
+        <v>-0.04053964508215291</v>
       </c>
       <c r="I22">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J22">
-        <v>0.001970518740590956</v>
+        <v>0.001347804082810071</v>
       </c>
       <c r="K22">
-        <v>0.3763550566533874</v>
+        <v>0.1592871747477849</v>
       </c>
       <c r="L22">
-        <v>0.0003708073461258355</v>
+        <v>0.0001073439522321729</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1362,34 +1362,34 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.899</v>
+        <v>-1.086</v>
       </c>
       <c r="E23">
         <v>819</v>
       </c>
       <c r="F23">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G23">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H23">
-        <v>0.3833593993124859</v>
+        <v>-0.2066925676085101</v>
       </c>
       <c r="I23">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J23">
-        <v>0.0004977553921501675</v>
+        <v>0.0005919370886033759</v>
       </c>
       <c r="K23">
-        <v>0.388019013022322</v>
+        <v>0.2750565684484488</v>
       </c>
       <c r="L23">
-        <v>9.656927799432342E-05</v>
+        <v>8.140809216430497E-05</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1403,31 +1403,31 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.8125</v>
+        <v>-0.8205</v>
       </c>
       <c r="E24">
         <v>665</v>
       </c>
       <c r="F24">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G24">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H24">
-        <v>0.2296431124424897</v>
+        <v>-0.06590824810887319</v>
       </c>
       <c r="I24">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J24">
-        <v>0.001617172871509755</v>
+        <v>0.001640766410039123</v>
       </c>
       <c r="K24">
-        <v>0.3690586565513766</v>
+        <v>0.3156045870671244</v>
       </c>
       <c r="L24">
-        <v>0.0002984158236853611</v>
+        <v>0.0002589167026570028</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1438,34 +1438,34 @@
         <v>34</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0.7185</v>
+        <v>0.7595000000000001</v>
       </c>
       <c r="E25">
         <v>334.75</v>
       </c>
       <c r="F25">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G25">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H25">
-        <v>-0.09999847027709638</v>
+        <v>0.2360009825064195</v>
       </c>
       <c r="I25">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J25">
-        <v>0.001213837129206114</v>
+        <v>0.001374972117058888</v>
       </c>
       <c r="K25">
-        <v>0.2949781184341687</v>
+        <v>0.3852175040180189</v>
       </c>
       <c r="L25">
-        <v>0.0001790276962293761</v>
+        <v>0.0002648316635138982</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1476,34 +1476,34 @@
         <v>35</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>-0.885</v>
+        <v>-0.776</v>
       </c>
       <c r="E26">
         <v>307.83</v>
       </c>
       <c r="F26">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G26">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H26">
-        <v>-0.1268688757481373</v>
+        <v>0.2606108129020703</v>
       </c>
       <c r="I26">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J26">
-        <v>0.0009198315171176667</v>
+        <v>0.0009290694398948455</v>
       </c>
       <c r="K26">
-        <v>0.3146557698813738</v>
+        <v>0.2244368314100724</v>
       </c>
       <c r="L26">
-        <v>0.0001447151470899058</v>
+        <v>0.0001042587006249649</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1514,34 +1514,34 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1.078</v>
+        <v>0.9590000000000001</v>
       </c>
       <c r="E27">
         <v>442</v>
       </c>
       <c r="F27">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G27">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H27">
-        <v>0.007053943793079553</v>
+        <v>0.1379547599977439</v>
       </c>
       <c r="I27">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J27">
-        <v>0.002037852580187526</v>
+        <v>0.001982577043934748</v>
       </c>
       <c r="K27">
-        <v>0.2134203745383177</v>
+        <v>0.2940736692974678</v>
       </c>
       <c r="L27">
-        <v>0.0002174596304587495</v>
+        <v>0.0002915118529874091</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1552,34 +1552,34 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1.2175</v>
+        <v>-0.8935</v>
       </c>
       <c r="E28">
         <v>260.42</v>
       </c>
       <c r="F28">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G28">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H28">
-        <v>-0.1741915326345432</v>
+        <v>0.3039522712623157</v>
       </c>
       <c r="I28">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J28">
-        <v>0.00093126578295219</v>
+        <v>0.0007511084719421207</v>
       </c>
       <c r="K28">
-        <v>0.1248766029476336</v>
+        <v>0.1761093906401365</v>
       </c>
       <c r="L28">
-        <v>5.81466537082189E-05</v>
+        <v>6.613862764918548E-05</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1590,34 +1590,34 @@
         <v>38</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>-0.9385</v>
+        <v>1.2045</v>
       </c>
       <c r="E29">
         <v>448.82</v>
       </c>
       <c r="F29">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G29">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H29">
-        <v>0.0138613793544651</v>
+        <v>0.1317200258484742</v>
       </c>
       <c r="I29">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J29">
-        <v>0.002570824340262102</v>
+        <v>0.003544347962998982</v>
       </c>
       <c r="K29">
-        <v>0.2511523723510848</v>
+        <v>0.2131737833855186</v>
       </c>
       <c r="L29">
-        <v>0.0003228343159773697</v>
+        <v>0.0003777810324536246</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1631,31 +1631,31 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>-0.8205</v>
+        <v>0.8034999999999999</v>
       </c>
       <c r="E30">
         <v>455.38</v>
       </c>
       <c r="F30">
-        <v>500.8085714285715</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G30">
-        <v>34687.60095510204</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H30">
-        <v>0.02040929391204416</v>
+        <v>0.1257229795113468</v>
       </c>
       <c r="I30">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J30">
-        <v>0.002079235380527547</v>
+        <v>0.00361347989376473</v>
       </c>
       <c r="K30">
-        <v>0.2876281354414528</v>
+        <v>0.3399302220427241</v>
       </c>
       <c r="L30">
-        <v>0.000299023297822519</v>
+        <v>0.0006141655113171819</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1666,34 +1666,34 @@
         <v>40</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-0.8155</v>
+        <v>0.7985</v>
       </c>
       <c r="E31">
         <v>89.5</v>
       </c>
       <c r="F31">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G31">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H31">
-        <v>-0.3447966479061001</v>
+        <v>0.4602045822290556</v>
       </c>
       <c r="I31">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J31">
-        <v>0.0001869713707004265</v>
+        <v>0.0001197665300230672</v>
       </c>
       <c r="K31">
-        <v>0.3998654560814828</v>
+        <v>0.4290257888155656</v>
       </c>
       <c r="L31">
-        <v>3.738169620965303E-05</v>
+        <v>2.569146500842477E-05</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1707,31 +1707,31 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>-0.8335</v>
+        <v>0.899</v>
       </c>
       <c r="E32">
         <v>437.64</v>
       </c>
       <c r="F32">
-        <v>500.8085714285715</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G32">
-        <v>34687.60095510204</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H32">
-        <v>0.002701976190786146</v>
+        <v>0.1419406017705907</v>
       </c>
       <c r="I32">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J32">
-        <v>0.002022290419583859</v>
+        <v>0.003399491351569605</v>
       </c>
       <c r="K32">
-        <v>0.2891729762664585</v>
+        <v>0.3148111183314528</v>
       </c>
       <c r="L32">
-        <v>0.0002923958697531049</v>
+        <v>0.0005350988370728646</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1745,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.7985</v>
+        <v>0.619</v>
       </c>
       <c r="E33">
         <v>354</v>
       </c>
       <c r="F33">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G33">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H33">
-        <v>-0.08078393441834686</v>
+        <v>0.2184029425689649</v>
       </c>
       <c r="I33">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J33">
-        <v>0.001445766792316066</v>
+        <v>0.00140506505815771</v>
       </c>
       <c r="K33">
-        <v>0.275029699605551</v>
+        <v>0.41590275327169</v>
       </c>
       <c r="L33">
-        <v>0.0001988144032951843</v>
+        <v>0.0002921852131068193</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1783,31 +1783,31 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-1.1685</v>
+        <v>-0.866</v>
       </c>
       <c r="E34">
         <v>605</v>
       </c>
       <c r="F34">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G34">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H34">
-        <v>0.169753650025608</v>
+        <v>-0.0110572145375861</v>
       </c>
       <c r="I34">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J34">
-        <v>0.002355729053604043</v>
+        <v>0.002005322627863968</v>
       </c>
       <c r="K34">
-        <v>0.1378695746917405</v>
+        <v>0.2830126467660247</v>
       </c>
       <c r="L34">
-        <v>0.0001623916813546828</v>
+        <v>0.0002837658322657908</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1821,31 +1821,31 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>-1.0935</v>
+        <v>0.9525</v>
       </c>
       <c r="E35">
         <v>217</v>
       </c>
       <c r="F35">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G35">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H35">
-        <v>-0.2175315402702266</v>
+        <v>0.3436461358900704</v>
       </c>
       <c r="I35">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J35">
-        <v>0.0002720238697680479</v>
+        <v>0.0005128024280676871</v>
       </c>
       <c r="K35">
-        <v>0.2761178173178224</v>
+        <v>0.3608938819942049</v>
       </c>
       <c r="L35">
-        <v>3.755531858935048E-05</v>
+        <v>9.25336294807008E-05</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1856,34 +1856,34 @@
         <v>45</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0.8034999999999999</v>
+        <v>0.9165</v>
       </c>
       <c r="E36">
         <v>415.73</v>
       </c>
       <c r="F36">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G36">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H36">
-        <v>-0.01916765916844511</v>
+        <v>0.161970370863039</v>
       </c>
       <c r="I36">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J36">
-        <v>0.002219569629705294</v>
+        <v>0.003033311862727259</v>
       </c>
       <c r="K36">
-        <v>0.2936118391505749</v>
+        <v>0.3156245548774715</v>
       </c>
       <c r="L36">
-        <v>0.000325845960550266</v>
+        <v>0.0004786938532389225</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1894,34 +1894,34 @@
         <v>46</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0.5565</v>
+        <v>-0.8195</v>
       </c>
       <c r="E37">
         <v>580.67</v>
       </c>
       <c r="F37">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="G37">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="H37">
-        <v>0.1454684730155625</v>
+        <v>0.01118487957557086</v>
       </c>
       <c r="I37">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J37">
-        <v>0.002599174240376039</v>
+        <v>0.002509452829114832</v>
       </c>
       <c r="K37">
-        <v>0.4143982664288695</v>
+        <v>0.2909308208864935</v>
       </c>
       <c r="L37">
-        <v>0.0005385466496792021</v>
+        <v>0.0003650385857751557</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1935,31 +1935,31 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>-0.7004999999999999</v>
+        <v>0.8125</v>
       </c>
       <c r="E38">
         <v>457.35</v>
       </c>
       <c r="F38">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="G38">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="H38">
-        <v>0.0223756645947318</v>
+        <v>0.1239220372424229</v>
       </c>
       <c r="I38">
-        <v>0.736913835728882</v>
+        <v>0.7409202761367338</v>
       </c>
       <c r="J38">
-        <v>0.002645131865157812</v>
+        <v>0.00205478161249674</v>
       </c>
       <c r="K38">
-        <v>0.3260029527117589</v>
+        <v>0.3365615969613479</v>
       </c>
       <c r="L38">
-        <v>0.0004311603991767045</v>
+        <v>0.0003457802904543582</v>
       </c>
     </row>
   </sheetData>

--- a/likelihood_formulas_M2.xlsx
+++ b/likelihood_formulas_M2.xlsx
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.078</v>
+        <v>-0.8935</v>
       </c>
       <c r="E2">
         <v>787</v>
       </c>
       <c r="F2">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G2">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H2">
-        <v>-0.177438683037157</v>
+        <v>0.4795646932322449</v>
       </c>
       <c r="I2">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J2">
-        <v>0.0007766707070766589</v>
+        <v>0.0007363728859854031</v>
       </c>
       <c r="K2">
-        <v>0.1599914571516448</v>
+        <v>0.1252863769947207</v>
       </c>
       <c r="L2">
-        <v>6.213033907609647E-05</v>
+        <v>4.612874550112886E-05</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -602,34 +602,34 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.158</v>
+        <v>0.6525000000000001</v>
       </c>
       <c r="E3">
         <v>605.67</v>
       </c>
       <c r="F3">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G3">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H3">
-        <v>-0.01166971774579877</v>
+        <v>0.2145448135488581</v>
       </c>
       <c r="I3">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J3">
-        <v>0.002002052752595503</v>
+        <v>0.001283634353414808</v>
       </c>
       <c r="K3">
-        <v>0.4568238647535111</v>
+        <v>0.413960621828118</v>
       </c>
       <c r="L3">
-        <v>0.0004572927379405414</v>
+        <v>0.0002656870375697641</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -640,34 +640,34 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.8565</v>
+        <v>0.7985</v>
       </c>
       <c r="E4">
         <v>566</v>
       </c>
       <c r="F4">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G4">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H4">
-        <v>0.02459595728375052</v>
+        <v>0.1565657773880466</v>
       </c>
       <c r="I4">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J4">
-        <v>0.002153538099781536</v>
+        <v>0.001674408517564528</v>
       </c>
       <c r="K4">
-        <v>0.2905331370244745</v>
+        <v>0.3543604254824068</v>
       </c>
       <c r="L4">
-        <v>0.0003128370899156278</v>
+        <v>0.0002966720573577661</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -678,34 +678,34 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>-0.7004999999999999</v>
+        <v>-1.086</v>
       </c>
       <c r="E5">
         <v>361.23</v>
       </c>
       <c r="F5">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G5">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H5">
-        <v>0.2117933930236248</v>
+        <v>-0.1427124488446072</v>
       </c>
       <c r="I5">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J5">
-        <v>0.001458359751044404</v>
+        <v>0.002365653186291629</v>
       </c>
       <c r="K5">
-        <v>0.2643028265277573</v>
+        <v>0.2529457692116326</v>
       </c>
       <c r="L5">
-        <v>0.0001927243021476762</v>
+        <v>0.0002991909824472428</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2875</v>
+        <v>-0.8195</v>
       </c>
       <c r="E6">
         <v>572.5</v>
       </c>
       <c r="F6">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G6">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H6">
-        <v>0.01865376198019442</v>
+        <v>0.1660657455011113</v>
       </c>
       <c r="I6">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J6">
-        <v>0.002134989469137696</v>
+        <v>0.002991803865265321</v>
       </c>
       <c r="K6">
-        <v>0.4414089808855099</v>
+        <v>0.2387992598995515</v>
       </c>
       <c r="L6">
-        <v>0.0004712017628866833</v>
+        <v>0.0003572202743949881</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>-0.9385</v>
+        <v>1.175</v>
       </c>
       <c r="E7">
         <v>515.6</v>
       </c>
       <c r="F7">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G7">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H7">
-        <v>0.07067082548363166</v>
+        <v>0.08290448617289913</v>
       </c>
       <c r="I7">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J7">
-        <v>0.002204018224676422</v>
+        <v>0.002805932441133344</v>
       </c>
       <c r="K7">
-        <v>0.2331022180414762</v>
+        <v>0.2042654400223094</v>
       </c>
       <c r="L7">
-        <v>0.0002568807683879552</v>
+        <v>0.0002865775123804877</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>-0.885</v>
+        <v>-0.866</v>
       </c>
       <c r="E8">
         <v>524.11</v>
       </c>
       <c r="F8">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G8">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H8">
-        <v>0.06289112055543745</v>
+        <v>0.09534213673323454</v>
       </c>
       <c r="I8">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J8">
-        <v>0.002207426797913534</v>
+        <v>0.002866110330789884</v>
       </c>
       <c r="K8">
-        <v>0.2527520493946077</v>
+        <v>0.246881061741506</v>
       </c>
       <c r="L8">
-        <v>0.0002789658235306112</v>
+        <v>0.0003537941807668528</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -830,7 +830,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0.5565</v>
@@ -839,25 +839,25 @@
         <v>487.4</v>
       </c>
       <c r="F9">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G9">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H9">
-        <v>0.09645081126213664</v>
+        <v>0.04168923989775701</v>
       </c>
       <c r="I9">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J9">
-        <v>0.00375881985169123</v>
+        <v>0.002540063954743632</v>
       </c>
       <c r="K9">
-        <v>0.4017869365662785</v>
+        <v>0.3931113563764296</v>
       </c>
       <c r="L9">
-        <v>0.0007551223566577663</v>
+        <v>0.0004992639932660736</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -868,34 +868,34 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-1.0935</v>
+        <v>1.078</v>
       </c>
       <c r="E10">
         <v>603.33</v>
       </c>
       <c r="F10">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G10">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H10">
-        <v>-0.009530527436518638</v>
+        <v>0.2111248250281549</v>
       </c>
       <c r="I10">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J10">
-        <v>0.002024358055023387</v>
+        <v>0.002869858903579923</v>
       </c>
       <c r="K10">
-        <v>0.2097301967252513</v>
+        <v>0.2788828995273309</v>
       </c>
       <c r="L10">
-        <v>0.000212284506561201</v>
+        <v>0.0004001772861323478</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -906,34 +906,34 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-0.6830000000000001</v>
+        <v>-0.158</v>
       </c>
       <c r="E11">
         <v>389</v>
       </c>
       <c r="F11">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G11">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H11">
-        <v>0.1864065063190475</v>
+        <v>-0.1021256619984833</v>
       </c>
       <c r="I11">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J11">
-        <v>0.002491485100271271</v>
+        <v>0.001262511681530154</v>
       </c>
       <c r="K11">
-        <v>0.2782891892430417</v>
+        <v>0.4729224802064385</v>
       </c>
       <c r="L11">
-        <v>0.0003466766842828052</v>
+        <v>0.0002985350778594208</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.175</v>
+        <v>1.0325</v>
       </c>
       <c r="E12">
         <v>664</v>
       </c>
       <c r="F12">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G12">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H12">
-        <v>-0.06499406421601842</v>
+        <v>0.2997960658619445</v>
       </c>
       <c r="I12">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J12">
-        <v>0.001647750029712754</v>
+        <v>0.002260605118548596</v>
       </c>
       <c r="K12">
-        <v>0.1642072414219164</v>
+        <v>0.3244903257288156</v>
       </c>
       <c r="L12">
-        <v>0.000135286243466006</v>
+        <v>0.0003667722456310308</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -985,31 +985,31 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>-0.8155</v>
+        <v>0.8034999999999999</v>
       </c>
       <c r="E13">
         <v>467</v>
       </c>
       <c r="F13">
-        <v>485.2571428571429</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G13">
-        <v>11260.04180612245</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H13">
-        <v>0.1151001626763742</v>
+        <v>0.01187395535829258</v>
       </c>
       <c r="I13">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J13">
-        <v>0.003704349918550382</v>
+        <v>0.002452804398832106</v>
       </c>
       <c r="K13">
-        <v>0.2583533626007875</v>
+        <v>0.3045601586470149</v>
       </c>
       <c r="L13">
-        <v>0.0004785156288537223</v>
+        <v>0.0003735132484192011</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-0.873</v>
+        <v>-0.8205</v>
       </c>
       <c r="E14">
         <v>564</v>
       </c>
       <c r="F14">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G14">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H14">
-        <v>0.02642432506946009</v>
+        <v>0.1536427102763344</v>
       </c>
       <c r="I14">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J14">
-        <v>0.002854736933616675</v>
+        <v>0.002997895724633833</v>
       </c>
       <c r="K14">
-        <v>0.2684942255581727</v>
+        <v>0.242601894624673</v>
       </c>
       <c r="L14">
-        <v>0.0003832401910818608</v>
+        <v>0.0003636475913416875</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1058,34 +1058,34 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1.0325</v>
+        <v>0.7595000000000001</v>
       </c>
       <c r="E15">
         <v>484.19</v>
       </c>
       <c r="F15">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G15">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H15">
-        <v>0.09938534155820047</v>
+        <v>0.03699771718345896</v>
       </c>
       <c r="I15">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J15">
-        <v>0.002149815618322943</v>
+        <v>0.00236263060864205</v>
       </c>
       <c r="K15">
-        <v>0.2575376137589952</v>
+        <v>0.3279078951521675</v>
       </c>
       <c r="L15">
-        <v>0.0002768291921823548</v>
+        <v>0.0003873626149509495</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>-0.8335</v>
+        <v>0.7865</v>
       </c>
       <c r="E16">
         <v>672.08</v>
       </c>
       <c r="F16">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G16">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H16">
-        <v>-0.07238067007028509</v>
+        <v>0.3116052569932619</v>
       </c>
       <c r="I16">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J16">
-        <v>0.001590767958529565</v>
+        <v>0.002155812094303911</v>
       </c>
       <c r="K16">
-        <v>0.3135043839819938</v>
+        <v>0.4042256147689543</v>
       </c>
       <c r="L16">
-        <v>0.0002493563644485526</v>
+        <v>0.0004357172345731728</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1137,31 +1137,31 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.7865</v>
+        <v>1.2045</v>
       </c>
       <c r="E17">
         <v>664.8</v>
       </c>
       <c r="F17">
-        <v>485.2571428571429</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G17">
-        <v>11260.04180612245</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H17">
-        <v>-0.06572541133030219</v>
+        <v>0.3009652927066293</v>
       </c>
       <c r="I17">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J17">
-        <v>0.0008984283018948918</v>
+        <v>0.0007662731728610819</v>
       </c>
       <c r="K17">
-        <v>0.2839000276913501</v>
+        <v>0.2663970559174732</v>
       </c>
       <c r="L17">
-        <v>0.0001275319098933262</v>
+        <v>0.0001020664586393666</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.6525000000000001</v>
+        <v>-0.776</v>
       </c>
       <c r="E18">
         <v>533</v>
       </c>
       <c r="F18">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G18">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H18">
-        <v>0.05476402574795843</v>
+        <v>0.1083351700447953</v>
       </c>
       <c r="I18">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J18">
-        <v>0.002205763416961644</v>
+        <v>0.00291758370568803</v>
       </c>
       <c r="K18">
-        <v>0.3641757970615028</v>
+        <v>0.2729294248884072</v>
       </c>
       <c r="L18">
-        <v>0.0004016428252505552</v>
+        <v>0.0003981472214286109</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.7185</v>
+        <v>0.8565</v>
       </c>
       <c r="E19">
         <v>695.67</v>
       </c>
       <c r="F19">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G19">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H19">
-        <v>-0.09394626810272941</v>
+        <v>0.3460828335759072</v>
       </c>
       <c r="I19">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J19">
-        <v>0.001419108583427478</v>
+        <v>0.001837666834284827</v>
       </c>
       <c r="K19">
-        <v>0.2968744431129315</v>
+        <v>0.3943630265978745</v>
       </c>
       <c r="L19">
-        <v>0.0002106485352109069</v>
+        <v>0.0003623539273235495</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1248,34 +1248,34 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-0.886</v>
+        <v>-0.873</v>
       </c>
       <c r="E20">
         <v>437</v>
       </c>
       <c r="F20">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G20">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H20">
-        <v>0.1425256794620178</v>
+        <v>-0.03197205131739045</v>
       </c>
       <c r="I20">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J20">
-        <v>0.001956559687793658</v>
+        <v>0.002543587021042841</v>
       </c>
       <c r="K20">
-        <v>0.2269800146283944</v>
+        <v>0.2877081139760321</v>
       </c>
       <c r="L20">
-        <v>0.0002220499732783657</v>
+        <v>0.0003659053122790748</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>-1.1685</v>
+        <v>-0.9385</v>
       </c>
       <c r="E21">
         <v>765.75</v>
       </c>
       <c r="F21">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G21">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H21">
-        <v>-0.1580122753139928</v>
+        <v>0.4485071051703028</v>
       </c>
       <c r="I21">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J21">
-        <v>0.0009142123889049103</v>
+        <v>0.0009500993024989927</v>
       </c>
       <c r="K21">
-        <v>0.2326842089492809</v>
+        <v>0.1219296062938149</v>
       </c>
       <c r="L21">
-        <v>0.0001063613932619857</v>
+        <v>5.792261694686516E-05</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1324,34 +1324,34 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1.2175</v>
+        <v>0.2875</v>
       </c>
       <c r="E22">
         <v>637.25</v>
       </c>
       <c r="F22">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G22">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H22">
-        <v>-0.04053964508215291</v>
+        <v>0.2607000432427938</v>
       </c>
       <c r="I22">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J22">
-        <v>0.001347804082810071</v>
+        <v>0.002576587927868517</v>
       </c>
       <c r="K22">
-        <v>0.1592871747477849</v>
+        <v>0.4737254198192224</v>
       </c>
       <c r="L22">
-        <v>0.0001073439522321729</v>
+        <v>0.0006102975989153268</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1365,31 +1365,31 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>-1.086</v>
+        <v>0.9165</v>
       </c>
       <c r="E23">
         <v>819</v>
       </c>
       <c r="F23">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G23">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H23">
-        <v>-0.2066925676085101</v>
+        <v>0.5263337670196402</v>
       </c>
       <c r="I23">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J23">
-        <v>0.0005919370886033759</v>
+        <v>0.0004781291625936006</v>
       </c>
       <c r="K23">
-        <v>0.2750565684484488</v>
+        <v>0.4256853572963156</v>
       </c>
       <c r="L23">
-        <v>8.140809216430497E-05</v>
+        <v>0.0001017662917062225</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1403,31 +1403,31 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>-0.8205</v>
+        <v>-0.8335</v>
       </c>
       <c r="E24">
         <v>665</v>
       </c>
       <c r="F24">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G24">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H24">
-        <v>-0.06590824810887319</v>
+        <v>0.3012575994178006</v>
       </c>
       <c r="I24">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J24">
-        <v>0.001640766410039123</v>
+        <v>0.002247813677923521</v>
       </c>
       <c r="K24">
-        <v>0.3156045870671244</v>
+        <v>0.1910191451322177</v>
       </c>
       <c r="L24">
-        <v>0.0002589167026570028</v>
+        <v>0.0002146877235867285</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1438,34 +1438,34 @@
         <v>34</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.7595000000000001</v>
+        <v>-1.0935</v>
       </c>
       <c r="E25">
         <v>334.75</v>
       </c>
       <c r="F25">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G25">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H25">
-        <v>0.2360009825064195</v>
+        <v>-0.1814138574036768</v>
       </c>
       <c r="I25">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J25">
-        <v>0.001374972117058888</v>
+        <v>0.0006796776428129454</v>
       </c>
       <c r="K25">
-        <v>0.3852175040180189</v>
+        <v>0.2634939697432758</v>
       </c>
       <c r="L25">
-        <v>0.0002648316635138982</v>
+        <v>8.954548012526764E-05</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1479,31 +1479,31 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>-0.776</v>
+        <v>-1.1685</v>
       </c>
       <c r="E26">
         <v>307.83</v>
       </c>
       <c r="F26">
-        <v>485.2571428571429</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G26">
-        <v>11260.04180612245</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H26">
-        <v>0.2606108129020703</v>
+        <v>-0.220758340727323</v>
       </c>
       <c r="I26">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J26">
-        <v>0.0009290694398948455</v>
+        <v>0.001951353519515639</v>
       </c>
       <c r="K26">
-        <v>0.2244368314100724</v>
+        <v>0.2514466375175384</v>
       </c>
       <c r="L26">
-        <v>0.0001042587006249649</v>
+        <v>0.0002453306405451109</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1523,25 +1523,25 @@
         <v>442</v>
       </c>
       <c r="F27">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G27">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H27">
-        <v>0.1379547599977439</v>
+        <v>-0.02466438353810994</v>
       </c>
       <c r="I27">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J27">
-        <v>0.001982577043934748</v>
+        <v>0.001969110111845722</v>
       </c>
       <c r="K27">
-        <v>0.2940736692974678</v>
+        <v>0.239431106572014</v>
       </c>
       <c r="L27">
-        <v>0.0002915118529874091</v>
+        <v>0.0002357331065206817</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1552,34 +1552,34 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>-0.8935</v>
+        <v>-0.6830000000000001</v>
       </c>
       <c r="E28">
         <v>260.42</v>
       </c>
       <c r="F28">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G28">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H28">
-        <v>0.3039522712623157</v>
+        <v>-0.2900496466104607</v>
       </c>
       <c r="I28">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J28">
-        <v>0.0007511084719421207</v>
+        <v>0.001491225972949411</v>
       </c>
       <c r="K28">
-        <v>0.1761093906401365</v>
+        <v>0.425030852864481</v>
       </c>
       <c r="L28">
-        <v>6.613862764918548E-05</v>
+        <v>0.0003169085235481769</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1590,34 +1590,34 @@
         <v>38</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1.2045</v>
+        <v>0.899</v>
       </c>
       <c r="E29">
         <v>448.82</v>
       </c>
       <c r="F29">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G29">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H29">
-        <v>0.1317200258484742</v>
+        <v>-0.01469672468717134</v>
       </c>
       <c r="I29">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J29">
-        <v>0.003544347962998982</v>
+        <v>0.002061137300894501</v>
       </c>
       <c r="K29">
-        <v>0.2131737833855186</v>
+        <v>0.26294771447343</v>
       </c>
       <c r="L29">
-        <v>0.0003777810324536246</v>
+        <v>0.0002709856712430717</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1628,34 +1628,34 @@
         <v>39</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.8034999999999999</v>
+        <v>0.7185</v>
       </c>
       <c r="E30">
         <v>455.38</v>
       </c>
       <c r="F30">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G30">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H30">
-        <v>0.1257229795113468</v>
+        <v>-0.005109064560755314</v>
       </c>
       <c r="I30">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J30">
-        <v>0.00361347989376473</v>
+        <v>0.002148381047210318</v>
       </c>
       <c r="K30">
-        <v>0.3399302220427241</v>
+        <v>0.3275377143720867</v>
       </c>
       <c r="L30">
-        <v>0.0006141655113171819</v>
+        <v>0.0003518379089017888</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1666,34 +1666,34 @@
         <v>40</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0.7985</v>
+        <v>-0.886</v>
       </c>
       <c r="E31">
         <v>89.5</v>
       </c>
       <c r="F31">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G31">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H31">
-        <v>0.4602045822290556</v>
+        <v>-0.5398549619773856</v>
       </c>
       <c r="I31">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J31">
-        <v>0.0001197665300230672</v>
+        <v>0.0002631553925756847</v>
       </c>
       <c r="K31">
-        <v>0.4290257888155656</v>
+        <v>0.4355352679948288</v>
       </c>
       <c r="L31">
-        <v>2.569146500842477E-05</v>
+        <v>5.730672721486761E-05</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1704,34 +1704,34 @@
         <v>41</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.899</v>
+        <v>-0.8155</v>
       </c>
       <c r="E32">
         <v>437.64</v>
       </c>
       <c r="F32">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G32">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H32">
-        <v>0.1419406017705907</v>
+        <v>-0.03103666984164256</v>
       </c>
       <c r="I32">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J32">
-        <v>0.003399491351569605</v>
+        <v>0.001909812000059384</v>
       </c>
       <c r="K32">
-        <v>0.3148111183314528</v>
+        <v>0.3069963213438308</v>
       </c>
       <c r="L32">
-        <v>0.0005350988370728646</v>
+        <v>0.0002931526292382675</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1745,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.619</v>
+        <v>0.9525</v>
       </c>
       <c r="E33">
         <v>354</v>
       </c>
       <c r="F33">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G33">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H33">
-        <v>0.2184029425689649</v>
+        <v>-0.1532793364534468</v>
       </c>
       <c r="I33">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J33">
-        <v>0.00140506505815771</v>
+        <v>0.0008629631536246874</v>
       </c>
       <c r="K33">
-        <v>0.41590275327169</v>
+        <v>0.1999755322652751</v>
       </c>
       <c r="L33">
-        <v>0.0002921852131068193</v>
+        <v>8.628575798570863E-05</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1783,31 +1783,31 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-0.866</v>
+        <v>0.619</v>
       </c>
       <c r="E34">
         <v>605</v>
       </c>
       <c r="F34">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="G34">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="H34">
-        <v>-0.0110572145375861</v>
+        <v>0.2135655860664345</v>
       </c>
       <c r="I34">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J34">
-        <v>0.002005322627863968</v>
+        <v>0.002859012542235306</v>
       </c>
       <c r="K34">
-        <v>0.2830126467660247</v>
+        <v>0.4220516125067639</v>
       </c>
       <c r="L34">
-        <v>0.0002837658322657908</v>
+        <v>0.0006033254268137366</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1818,34 +1818,34 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0.9525</v>
+        <v>0.8125</v>
       </c>
       <c r="E35">
         <v>217</v>
       </c>
       <c r="F35">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G35">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H35">
-        <v>0.3436461358900704</v>
+        <v>-0.3535094336057327</v>
       </c>
       <c r="I35">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J35">
-        <v>0.0005128024280676871</v>
+        <v>0.001075136215301714</v>
       </c>
       <c r="K35">
-        <v>0.3608938819942049</v>
+        <v>0.1815677464792075</v>
       </c>
       <c r="L35">
-        <v>9.25336294807008E-05</v>
+        <v>9.760502988525814E-05</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1859,31 +1859,31 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.9165</v>
+        <v>-0.885</v>
       </c>
       <c r="E36">
         <v>415.73</v>
       </c>
       <c r="F36">
-        <v>485.2571428571429</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G36">
-        <v>11260.04180612245</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H36">
-        <v>0.161970370863039</v>
+        <v>-0.0630588700504497</v>
       </c>
       <c r="I36">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J36">
-        <v>0.003033311862727259</v>
+        <v>0.002552272872940157</v>
       </c>
       <c r="K36">
-        <v>0.3156245548774715</v>
+        <v>0.2942256987402071</v>
       </c>
       <c r="L36">
-        <v>0.0004786938532389225</v>
+        <v>0.0003754721347082468</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1897,31 +1897,31 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>-0.8195</v>
+        <v>1.2175</v>
       </c>
       <c r="E37">
         <v>580.67</v>
       </c>
       <c r="F37">
-        <v>485.2571428571429</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G37">
-        <v>11260.04180612245</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H37">
-        <v>0.01118487957557086</v>
+        <v>0.1780064746524555</v>
       </c>
       <c r="I37">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J37">
-        <v>0.002509452829114832</v>
+        <v>0.001529130619309109</v>
       </c>
       <c r="K37">
-        <v>0.2909308208864935</v>
+        <v>0.2210860036918096</v>
       </c>
       <c r="L37">
-        <v>0.0003650385857751557</v>
+        <v>0.0001690346888729164</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1932,34 +1932,34 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0.8125</v>
+        <v>-0.7004999999999999</v>
       </c>
       <c r="E38">
         <v>457.35</v>
       </c>
       <c r="F38">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="G38">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="H38">
-        <v>0.1239220372424229</v>
+        <v>-0.002229843455718764</v>
       </c>
       <c r="I38">
-        <v>0.7409202761367338</v>
+        <v>0.7084781746868188</v>
       </c>
       <c r="J38">
-        <v>0.00205478161249674</v>
+        <v>0.002491658866814777</v>
       </c>
       <c r="K38">
-        <v>0.3365615969613479</v>
+        <v>0.3359727813348551</v>
       </c>
       <c r="L38">
-        <v>0.0003457802904543582</v>
+        <v>0.0004185647798107069</v>
       </c>
     </row>
   </sheetData>
